--- a/excel/Book2.xlsx
+++ b/excel/Book2.xlsx
@@ -50,7 +50,7 @@
     <t>cricket</t>
   </si>
   <si>
-    <t>jam</t>
+    <t>mam</t>
   </si>
   <si>
     <t>chen</t>
